--- a/target/classes/PostUser.xlsx
+++ b/target/classes/PostUser.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="11925" windowHeight="1695"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14115" windowHeight="5205"/>
   </bookViews>
   <sheets>
-    <sheet name="postUsers" sheetId="1" r:id="rId1"/>
+    <sheet name="statusCode_200" sheetId="3" r:id="rId1"/>
+    <sheet name="statusCode_400" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="B1:M7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,60 +21,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
   <si>
     <t>Test case name</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t>Test status</t>
-  </si>
-  <si>
-    <t>Response code</t>
-  </si>
-  <si>
     <t>Response</t>
   </si>
   <si>
     <t>postUser2_Excel</t>
   </si>
   <si>
-    <t>getUsers_HeadersandAuthentications</t>
-  </si>
-  <si>
-    <t>edion</t>
-  </si>
-  <si>
-    <t>n8768209813</t>
-  </si>
-  <si>
-    <t>PASSED</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>{"id":"556","createdAt":"2021-07-29T07:53:20.862Z"}</t>
-  </si>
-  <si>
-    <t>{"id":"350","createdAt":"2021-07-29T07:53:51.433Z"}</t>
+    <t>title</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>user_email</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>selmer09@gmail.com</t>
+  </si>
+  <si>
+    <t>$2y$10$eOCKQU9Ax6JAgMheCwOSqeMrWUD1z8NQUBDYGVDMkb5HeS7EKYgiu</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>statusCode</t>
+  </si>
+  <si>
+    <t>ResponseCode</t>
+  </si>
+  <si>
+    <t>tuannda@miichisoft.com</t>
+  </si>
+  <si>
+    <t>Title01</t>
+  </si>
+  <si>
+    <t>Title02</t>
+  </si>
+  <si>
+    <t>Body01</t>
+  </si>
+  <si>
+    <t>Body02</t>
+  </si>
+  <si>
+    <t>Title400</t>
+  </si>
+  <si>
+    <t>Body400</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -89,7 +120,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -97,14 +128,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -409,7 +461,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -417,65 +469,224 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="32.625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.375" collapsed="true"/>
+    <col min="8" max="8" width="10.25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.25" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="10.25" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="G1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="3">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>